--- a/resources/experiment 1/metrics/MAPE/incidence/Neuropatía (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Neuropatía (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1749439332307384</v>
+        <v>0.1749439332307385</v>
       </c>
       <c r="C2" t="n">
         <v>0.1749439332307384</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02186447329381897</v>
+        <v>0.02289963500604794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021839743341897</v>
+        <v>0.02263920663709551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.021839743341897</v>
+        <v>0.04829514876820767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0247450522062886</v>
+        <v>0.0244326463740279</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02474505220628859</v>
+        <v>0.02400890201203397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02474505220628859</v>
+        <v>0.04160863179126655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06976099122666225</v>
+        <v>0.0213756523163499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06976099122666225</v>
+        <v>0.02386392024273786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06976099122666225</v>
+        <v>0.02295920102333551</v>
       </c>
     </row>
   </sheetData>
